--- a/normalize.xlsx
+++ b/normalize.xlsx
@@ -557,13 +557,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AE23" sqref="AE23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" customWidth="1"/>
     <col min="17" max="17" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
